--- a/Assets/Shared/ExcelImporter/Excels/Goods/RunePurchaseableLevelDataSheet.xlsx
+++ b/Assets/Shared/ExcelImporter/Excels/Goods/RunePurchaseableLevelDataSheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\SynergyDungeon\Assets\Shared\ExcelImporter\Excels\Goods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E37B43-8156-46D4-8399-BEC7BBB3F94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBEDC54-64EF-434C-B9D7-CAF7FE5EFB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2235" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1635" yWindow="1455" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RunePurchaseableLevelExcelDatas" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>SalesIndex</t>
+    <t>SalesId</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -323,7 +324,9 @@
   </sheetPr>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
